--- a/cheats/Docker/Docker.xlsx
+++ b/cheats/Docker/Docker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirillsemenov/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirillsemenov/Disk/Engineering/[2] SW/[9] Docker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5761B8E7-5C0E-3D45-9BB3-F4F1C5BC3B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87929D4-1297-7B4E-B50D-71CA067472BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{78CCBB05-A903-0D46-9E83-E5B96BAC8B37}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{78CCBB05-A903-0D46-9E83-E5B96BAC8B37}"/>
   </bookViews>
   <sheets>
     <sheet name="Docker" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="125">
   <si>
     <t>Env variables</t>
   </si>
@@ -264,6 +264,15 @@
     <t>docker run &lt;IID&gt;</t>
   </si>
   <si>
+    <t>&lt;IID&gt;</t>
+  </si>
+  <si>
+    <t>&lt;CID&gt;</t>
+  </si>
+  <si>
+    <t>Container ID</t>
+  </si>
+  <si>
     <t>Ports local:docker(exposed)</t>
   </si>
   <si>
@@ -351,6 +360,9 @@
     <t>Image ID with tag</t>
   </si>
   <si>
+    <t>Image ID (or name:tag)</t>
+  </si>
+  <si>
     <t>Image</t>
   </si>
   <si>
@@ -580,15 +592,6 @@
   </si>
   <si>
     <t>Develope without rebuild</t>
-  </si>
-  <si>
-    <t>&lt;IID&gt; Image ID (or name:tag)</t>
-  </si>
-  <si>
-    <t>&lt;CID&gt; Container ID</t>
-  </si>
-  <si>
-    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -640,12 +643,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -654,37 +657,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -702,54 +675,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -757,44 +683,7 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -803,77 +692,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -889,33 +708,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -923,16 +718,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -941,164 +732,90 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1118,9 +835,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1158,7 +875,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1264,7 +981,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1406,7 +1123,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1414,637 +1131,631 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C42981F-88A7-014A-BC44-8B5E666D964B}">
-  <dimension ref="B1:C91"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="107" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="44.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="35"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="20" t="s">
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="20" t="s">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="20" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="14"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="14"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="13"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="14"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="14"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="14"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="9"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="13"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="11"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="9"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="13"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="14"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="14"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="14"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="14"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="9"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="22"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" s="22"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="42" t="s">
+    </row>
+    <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67"/>
+      <c r="B67"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77"/>
+      <c r="B77"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85" s="13"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" s="14"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88" s="14"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="43"/>
-      <c r="C11" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="37"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="35"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="11"/>
-    </row>
-    <row r="32" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="35"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="9"/>
-    </row>
-    <row r="36" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="11"/>
-    </row>
-    <row r="37" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="35"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="9"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="9"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B43" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="9"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="9"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="9"/>
-    </row>
-    <row r="46" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="11"/>
-    </row>
-    <row r="47" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="37"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B49" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="41"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B52" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B53" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B54" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B55" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B56" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B57" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" s="39"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B58" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B59" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B60" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B61" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B62" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B63" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B64" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B65" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B66" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68"/>
-      <c r="C68"/>
-    </row>
-    <row r="69" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" s="37"/>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B70" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B71" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B73" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B74" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B75" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B76" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78"/>
-      <c r="C78"/>
-    </row>
-    <row r="79" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="C79" s="37"/>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B80" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B81" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B82" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B83" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C86" s="35"/>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B87" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B88" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C88" s="9"/>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B89" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C89" s="9"/>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B90" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C91" s="11"/>
+      <c r="B90" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B79:C79"/>
+  <mergeCells count="11">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A78:B78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
